--- a/files/publications.xlsx
+++ b/files/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhudeng/PycharmProjects/zhudeng94.github.io/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2160C5A9-6B96-534C-8332-E2C728695570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58DC320-A467-AF4D-AE18-DA50406EA37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="27040" windowHeight="16880" xr2:uid="{C662DCB8-BE2B-7247-A0BF-C76DFEE95FD5}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15560" xr2:uid="{C662DCB8-BE2B-7247-A0BF-C76DFEE95FD5}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>Global Greenhouse Gas Reconciliation 2022</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>10.1029/2023gl107536</t>
   </si>
   <si>
@@ -699,6 +696,10 @@
   </si>
   <si>
     <t>bzZYiBgAAAAJ:u5HHmVD_uO8C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth System Science Data Discussion (Preprint)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1679,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD0BD73-9DD2-4744-A520-0A2786C3F0A6}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1696,13 +1697,13 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1731,7 +1732,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -1760,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1786,7 +1787,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1795,10 +1796,10 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H4" s="1">
         <v>45478</v>
@@ -1812,22 +1813,22 @@
     </row>
     <row r="5" spans="1:10" ht="17">
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="1">
         <v>45395</v>
@@ -1841,22 +1842,22 @@
     </row>
     <row r="6" spans="1:10" ht="17">
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H6" s="1">
         <v>45393</v>
@@ -1873,22 +1874,22 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="H7" s="1">
         <v>45386</v>
@@ -1902,22 +1903,22 @@
     </row>
     <row r="8" spans="1:10" ht="17">
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="H8" s="1">
         <v>45314</v>
@@ -1925,22 +1926,22 @@
     </row>
     <row r="9" spans="1:10" ht="51">
       <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>129</v>
       </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>130</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H9" s="1">
         <v>45300</v>
@@ -1954,22 +1955,22 @@
     </row>
     <row r="10" spans="1:10" ht="34">
       <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H10" s="1">
         <v>45201</v>
@@ -1983,22 +1984,22 @@
     </row>
     <row r="11" spans="1:10" ht="34">
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="G11" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="1">
         <v>45092</v>
@@ -2012,22 +2013,22 @@
     </row>
     <row r="12" spans="1:10" ht="34">
       <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>42</v>
       </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H12" s="1">
         <v>45085</v>
@@ -2041,22 +2042,22 @@
     </row>
     <row r="13" spans="1:10" ht="34">
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H13" s="1">
         <v>45033</v>
@@ -2073,22 +2074,22 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
         <v>45</v>
       </c>
-      <c r="C14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="F14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="H14" s="1">
         <v>44998</v>
@@ -2102,22 +2103,22 @@
     </row>
     <row r="15" spans="1:10" ht="119">
       <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" t="s">
         <v>48</v>
       </c>
-      <c r="C15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="G15" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="H15" s="1">
         <v>44992</v>
@@ -2131,22 +2132,22 @@
     </row>
     <row r="16" spans="1:10" ht="51">
       <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
         <v>50</v>
       </c>
-      <c r="C16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H16" s="1">
         <v>44963</v>
@@ -2160,22 +2161,22 @@
     </row>
     <row r="17" spans="1:10" ht="34">
       <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
         <v>52</v>
       </c>
-      <c r="C17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>53</v>
-      </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H17" s="1">
         <v>44875</v>
@@ -2189,22 +2190,22 @@
     </row>
     <row r="18" spans="1:10" ht="17">
       <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" t="s">
         <v>54</v>
       </c>
-      <c r="C18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="H18" s="1">
         <v>44868</v>
@@ -2218,22 +2219,22 @@
     </row>
     <row r="19" spans="1:10" ht="34">
       <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
         <v>57</v>
       </c>
-      <c r="C19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>58</v>
       </c>
-      <c r="F19" t="s">
-        <v>59</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H19" s="1">
         <v>44835</v>
@@ -2247,22 +2248,22 @@
     </row>
     <row r="20" spans="1:10" ht="34">
       <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" t="s">
         <v>60</v>
       </c>
-      <c r="C20" t="s">
-        <v>157</v>
-      </c>
-      <c r="D20" t="s">
-        <v>156</v>
-      </c>
-      <c r="E20" t="s">
-        <v>61</v>
-      </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H20" s="1">
         <v>44805</v>
@@ -2279,22 +2280,22 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
         <v>62</v>
       </c>
-      <c r="C21" t="s">
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="H21" s="1">
         <v>44742</v>
@@ -2311,22 +2312,22 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" t="s">
-        <v>163</v>
-      </c>
-      <c r="F22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="H22" s="1">
         <v>44662</v>
@@ -2340,22 +2341,22 @@
     </row>
     <row r="23" spans="1:10" ht="34">
       <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
         <v>65</v>
       </c>
-      <c r="C23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>66</v>
       </c>
-      <c r="F23" t="s">
-        <v>67</v>
-      </c>
       <c r="G23" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H23" s="1">
         <v>44651</v>
@@ -2372,22 +2373,22 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
         <v>68</v>
       </c>
-      <c r="C24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="F24" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="H24" s="1">
         <v>44641</v>
@@ -2401,22 +2402,22 @@
     </row>
     <row r="25" spans="1:10" ht="17">
       <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
         <v>71</v>
       </c>
-      <c r="C25" t="s">
-        <v>171</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>72</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="H25" s="1">
         <v>44634</v>
@@ -2430,22 +2431,22 @@
     </row>
     <row r="26" spans="1:10" ht="17">
       <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
         <v>75</v>
       </c>
-      <c r="C26" t="s">
+      <c r="F26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="H26" s="1">
         <v>44627</v>
@@ -2459,22 +2460,22 @@
     </row>
     <row r="27" spans="1:10" ht="34">
       <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" t="s">
         <v>78</v>
       </c>
-      <c r="C27" t="s">
-        <v>174</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="G27" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="F27" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="H27" s="1">
         <v>44552</v>
@@ -2488,22 +2489,22 @@
     </row>
     <row r="28" spans="1:10" ht="17">
       <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
         <v>80</v>
       </c>
-      <c r="C28" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="F28" t="s">
-        <v>131</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="H28" s="1">
         <v>44551</v>
@@ -2517,22 +2518,22 @@
     </row>
     <row r="29" spans="1:10" ht="34">
       <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
         <v>83</v>
       </c>
-      <c r="C29" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" t="s">
-        <v>84</v>
-      </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H29" s="1">
         <v>44502</v>
@@ -2546,22 +2547,22 @@
     </row>
     <row r="30" spans="1:10" ht="51">
       <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" t="s">
         <v>85</v>
       </c>
-      <c r="C30" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="G30" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="F30" t="s">
-        <v>86</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="H30" s="1">
         <v>44357</v>
@@ -2575,22 +2576,22 @@
     </row>
     <row r="31" spans="1:10" ht="34">
       <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" t="s">
         <v>87</v>
       </c>
-      <c r="C31" t="s">
+      <c r="G31" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" t="s">
-        <v>181</v>
-      </c>
-      <c r="F31" t="s">
-        <v>88</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="H31" s="1">
         <v>44344</v>
@@ -2598,22 +2599,22 @@
     </row>
     <row r="32" spans="1:10" ht="34">
       <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
         <v>89</v>
       </c>
-      <c r="C32" t="s">
-        <v>186</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>90</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="H32" s="1">
         <v>44275</v>
@@ -2630,22 +2631,22 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
         <v>93</v>
       </c>
-      <c r="C33" t="s">
+      <c r="F33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="H33" s="1">
         <v>44144</v>
@@ -2659,22 +2660,22 @@
     </row>
     <row r="34" spans="1:10" ht="17">
       <c r="B34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
         <v>188</v>
       </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" t="s">
-        <v>189</v>
-      </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H34" s="1">
         <v>44134</v>
@@ -2691,22 +2692,22 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
         <v>96</v>
       </c>
-      <c r="C35" t="s">
-        <v>191</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>97</v>
       </c>
-      <c r="F35" t="s">
-        <v>98</v>
-      </c>
       <c r="G35" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H35" s="1">
         <v>44118</v>
@@ -2720,22 +2721,22 @@
     </row>
     <row r="36" spans="1:10" ht="17">
       <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
         <v>99</v>
       </c>
-      <c r="C36" t="s">
-        <v>192</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>100</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="H36" s="1">
         <v>44109</v>
@@ -2749,22 +2750,22 @@
     </row>
     <row r="37" spans="1:10" ht="17">
       <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
         <v>103</v>
       </c>
-      <c r="C37" t="s">
-        <v>193</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>104</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="H37" s="1">
         <v>44054</v>
@@ -2778,22 +2779,22 @@
     </row>
     <row r="38" spans="1:10" ht="17">
       <c r="B38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" t="s">
+        <v>194</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" t="s">
         <v>107</v>
       </c>
-      <c r="C38" t="s">
-        <v>195</v>
-      </c>
-      <c r="D38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" t="s">
-        <v>194</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="G38" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="H38" s="1">
         <v>43685</v>
@@ -2807,22 +2808,22 @@
     </row>
     <row r="39" spans="1:10" ht="17">
       <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C39" t="s">
-        <v>197</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F39" t="s">
-        <v>108</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="H39" s="1">
         <v>43658</v>
@@ -2830,22 +2831,22 @@
     </row>
     <row r="40" spans="1:10" ht="17">
       <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C40" t="s">
-        <v>199</v>
-      </c>
-      <c r="D40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" t="s">
-        <v>198</v>
-      </c>
-      <c r="F40" t="s">
-        <v>170</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="H40" s="1">
         <v>43622</v>
@@ -2859,22 +2860,22 @@
     </row>
     <row r="41" spans="1:10" ht="17">
       <c r="B41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" t="s">
+        <v>199</v>
+      </c>
+      <c r="D41" t="s">
         <v>114</v>
       </c>
-      <c r="C41" t="s">
-        <v>200</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>115</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>116</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="H41" s="1">
         <v>42642</v>

--- a/files/publications.xlsx
+++ b/files/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhudeng/PycharmProjects/zhudeng94.github.io/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58DC320-A467-AF4D-AE18-DA50406EA37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC0AAB5-534C-4B42-B967-5FDA79ED6C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15560" xr2:uid="{C662DCB8-BE2B-7247-A0BF-C76DFEE95FD5}"/>
   </bookViews>
@@ -607,10 +607,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Population ageing and deaths attributable to ambient PM2路5 pollution: a global analysis of economic cost</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Hao Yin, Michael Brauer, Junfeng Jim Zhang, Wenjia Cai, Ståle Navrud, Richard Burnett, Courtney Howard, Zhu Deng, Daniel M Kammen, Hans Joachim Schellnhuber, Kai Chen, Haidong Kan, Zhan-Ming Chen, Bin Chen, Ning Zhang, Zhifu Mi, D'Maris Coffman, Aaron J Cohen, Dabo Guan, Qiang Zhang, Peng Gong, Zhu Liu</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -700,6 +696,10 @@
   </si>
   <si>
     <t>Earth System Science Data Discussion (Preprint)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Population ageing and deaths attributable to ambient PM2.5 pollution: a global analysis of economic cost</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1680,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD0BD73-9DD2-4744-A520-0A2786C3F0A6}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="E23" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1689,7 +1689,7 @@
     <col min="2" max="2" width="34.1640625" customWidth="1"/>
     <col min="3" max="3" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="228.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47.1640625" customWidth="1"/>
     <col min="7" max="7" width="143.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -1796,7 +1796,7 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>160</v>
@@ -2550,19 +2550,19 @@
         <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="F30" t="s">
         <v>85</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H30" s="1">
         <v>44357</v>
@@ -2579,19 +2579,19 @@
         <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F31" t="s">
         <v>87</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H31" s="1">
         <v>44344</v>
@@ -2602,7 +2602,7 @@
         <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -2634,7 +2634,7 @@
         <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -2646,7 +2646,7 @@
         <v>42</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H33" s="1">
         <v>44144</v>
@@ -2663,19 +2663,19 @@
         <v>94</v>
       </c>
       <c r="C34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
         <v>187</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" t="s">
-        <v>188</v>
       </c>
       <c r="F34" t="s">
         <v>21</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H34" s="1">
         <v>44134</v>
@@ -2695,7 +2695,7 @@
         <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -2707,7 +2707,7 @@
         <v>97</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H35" s="1">
         <v>44118</v>
@@ -2724,7 +2724,7 @@
         <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
@@ -2753,7 +2753,7 @@
         <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -2782,13 +2782,13 @@
         <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F38" t="s">
         <v>107</v>
@@ -2811,13 +2811,13 @@
         <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F39" t="s">
         <v>107</v>
@@ -2834,13 +2834,13 @@
         <v>111</v>
       </c>
       <c r="C40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F40" t="s">
         <v>169</v>
@@ -2863,7 +2863,7 @@
         <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D41" t="s">
         <v>114</v>

--- a/files/publications.xlsx
+++ b/files/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhudeng/PycharmProjects/zhudeng94.github.io/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC0AAB5-534C-4B42-B967-5FDA79ED6C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289075F2-A2C7-BE48-9EDD-085A3F0B8AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15560" xr2:uid="{C662DCB8-BE2B-7247-A0BF-C76DFEE95FD5}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15540" xr2:uid="{C662DCB8-BE2B-7247-A0BF-C76DFEE95FD5}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -1680,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD0BD73-9DD2-4744-A520-0A2786C3F0A6}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E23" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1870,9 +1870,6 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="17">
-      <c r="A7">
-        <v>1</v>
-      </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
@@ -2070,9 +2067,6 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="17">
-      <c r="A14">
-        <v>1</v>
-      </c>
       <c r="B14" t="s">
         <v>44</v>
       </c>
@@ -2369,9 +2363,6 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="17">
-      <c r="A24">
-        <v>1</v>
-      </c>
       <c r="B24" t="s">
         <v>67</v>
       </c>
